--- a/micheline tierss.xlsx
+++ b/micheline tierss.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Micheline Tyres" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Micheline Tyres" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,34 +424,1007 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Brand Name</t>
+          <t>transaction_id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Model Name</t>
+          <t>list_name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>list_position</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Image Link</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Price</t>
+          <t>brand</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>variant</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>image-Link</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'TY599103D214':{"transaction_id":"TY599103D214","list_name":"catalog","list_position":1,"name":"MICHELIN 295/40ZR19 (108Y) PILOT SPORT 4 EL N0","brand":"MICHELIN","category":"tyre","variant":"295/40ZR19","price":"494"},'TY599103D1CF':{"transaction_id":"TY599103D1CF","list_name":"catalog","list_position":2,"name":"MICHELIN 265/45ZR19 105Y PILOT SPORT 4 EL N0","brand":"MICHELIN","category":"tyre","variant":"265/45ZR19","price":"511"},'TY5951ED9BDC':{"transaction_id":"TY5951ED9BDC","list_name":"catalog","list_position":3,"name":"MICHELIN 205/50R16 91W PILOT SPORT 4","brand":"MICHELIN","category":"tyre","variant":"205/50R16","price":"222"},'TY57C375E6F3':{"transaction_id":"TY57C375E6F3","list_name":"catalog","list_position":4,"name":"MICHELIN 225/40ZR18 (92Y) PILOT SPORT 4 EL","brand":"MICHELIN","category":"tyre","variant":"225/40ZR18","price":"255"},'TY5C53B49CBE':{"transaction_id":"TY5C53B49CBE","list_name":"catalog","list_position":5,"name":"MICHELIN 315/30ZR21 (105Y) PILOT SPORT 4 EL N0 ACOUSTIC","brand":"MICHELIN","category":"tyre","variant":"315/30ZR21","price":"745"},'TY583E03F05E':{"transaction_id":"TY583E03F05E","list_name":"catalog","list_position":6,"name":"MICHELIN 215/40ZR18 (89Y) PILOT SPORT 4 EL","brand":"MICHELIN","category":"tyre","variant":"215/40ZR18","price":"308"},'TY57C375E72A':{"transaction_id":"TY57C375E72A","list_name":"catalog","list_position":7,"name":"MICHELIN 245/40ZR18 (97Y) PILOT SPORT 4 EL","brand":"MICHELIN","category":"tyre","variant":"245/40ZR18","price":"365"},'TY5CF5F641F2':{"transaction_id":"TY5CF5F641F2","list_name":"catalog","list_position":8,"name":"MICHELIN 235/40ZR18 (95Y) PILOT SPORT 4 EL","brand":"MICHELIN","category":"tyre","variant":"235/40ZR18","price":"212"},'TY5CF5F63B68':{"transaction_id":"TY5CF5F63B68","list_name":"catalog","list_position":9,"name":"MICHELIN 215/45ZR17 (91Y) PILOT SPORT 4 EL","brand":"MICHELIN","category":"tyre","variant":"215/45ZR17","price":"205"},'TY583E03F2CA':{"transaction_id":"TY583E03F2CA","list_name":"catalog","list_position":10,"name":"MICHELIN 255/40ZR18 (99Y) PILOT SPORT 4 EL","brand":"MICHELIN","category":"tyre","variant":"255/40ZR18","price":"470"},'TY5CF5F63BA6':{"transaction_id":"TY5CF5F63BA6","list_name":"catalog","list_position":11,"name":"MICHELIN 245/45ZR17 (99Y) PILOT SPORT 4 EL","brand":"MICHELIN","category":"tyre","variant":"245/45ZR17","price":"288"},'TY5D3687B097':{"transaction_id":"TY5D3687B097","list_name":"catalog","list_position":12,"name":"MICHELIN 255/40ZR17 (98Y) PILOT SPORT 4 EL","brand":"MICHELIN","category":"tyre","variant":"255/40ZR17","price":"365"},'TY5C2D70BB77':{"transaction_id":"TY5C2D70BB77","list_name":"catalog","list_position":13,"name":"MICHELIN 215/45ZR18 (93Y) PILOT SPORT 4 EL","brand":"MICHELIN","category":"tyre","variant":"215/45ZR18","price":"269"},'TY5951ED9B94':{"transaction_id":"TY5951ED9B94","list_name":"catalog","list_position":14,"name":"MICHELIN 235/45R18 98Y PILOT SPORT 4","brand":"MICHELIN","category":"tyre","variant":"235/45R18","price":"420"},'TY5951ED9BAC':{"transaction_id":"TY5951ED9BAC","list_name":"catalog","list_position":15,"name":"MICHELIN 215/50R17 95W PILOT SPORT 4","brand":"MICHELIN","category":"tyre","variant":"215/50R17","price":"262"},'TY5757558385':{"transaction_id":"TY5757558385","list_name":"catalog","list_position":16,"name":"MICHELIN 225/45ZR17 (94Y) PILOT SPORT 4 EL","brand":"MICHELIN","category":"tyre","variant":"225/45ZR17","price":"310"},'TY5CF5F63C58':{"transaction_id":"TY5CF5F63C58","list_name":"catalog","list_position":17,"name":"MICHELIN 245/35ZR18 (92Y) PILOT SPORT 4 EL","brand":"MICHELIN","category":"tyre","variant":"245/35ZR18","price":"365"},'TY5951ED9B9F':{"transaction_id":"TY5951ED9B9F","list_name":"catalog","list_position":18,"name":"MICHELIN 205/50R17 93W PILOT SPORT 4","brand":"MICHELIN","category":"tyre","variant":"205/50R17","price":"249"},'TY5CF5F6411B':{"transaction_id":"TY5CF5F6411B","list_name":"catalog","list_position":19,"name":"MICHELIN 235/45ZR17 (97Y) PILOT SPORT 4 EL","brand":"MICHELIN","category":"tyre","variant":"235/45ZR17","price":"193"},'TY5CF5F63B70':{"transaction_id":"TY5CF5F63B70","list_name":"catalog","list_position":20,"name":"MICHELIN 245/40ZR17 (95Y) PILOT SPORT 4 EL","brand":"MICHELIN","category":"tyre","variant":"245/40ZR17","price":"281"},'TY5951ED9BB9':{"transaction_id":"TY5951ED9BB9","list_name":"catalog","list_position":21,"name":"MICHELIN 225/50R17 98Y PILOT SPORT 4","brand":"MICHELIN","category":"tyre","variant":"225/50R17","price":"328"},'TY5951ED9B85':{"transaction_id":"TY5951ED9B85","list_name":"catalog","list_position":22,"name":"MICHELIN 215/55R17 98W PILOT SPORT 4","brand":"MICHELIN","category":"tyre","variant":"215/55R17","price":"299"},'TY5E785BFC02':{"transaction_id":"TY5E785BFC02","list_name":"catalog","list_position":23,"name":"MICHELIN 275/35ZR21 (103Y) PILOT SPORT 4 EL N0 ACOUSTIC","brand":"MICHELIN","category":"tyre","variant":"275/35ZR21","price":"611"},'TY5CF5F63B9C':{"transaction_id":"TY5CF5F63B9C","list_name":"catalog","list_position":24,"name":"MICHELIN 245/40ZR19 (98Y) PILOT SPORT 4 EL","brand":"MICHELIN","category":"tyre","variant":"245/40ZR19","price":"417"}}</t>
+          <t>TY599103D214</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MICHELIN 295/40ZR19 (108Y) PILOT SPORT 4 EL N0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>295/40ZR19</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TY599103D1CF</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MICHELIN 265/45ZR19 105Y PILOT SPORT 4 EL N0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>265/45ZR19</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TY5951ED9BDC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MICHELIN 205/50R16 91W PILOT SPORT 4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>205/50R16</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TY57C375E6F3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MICHELIN 225/40ZR18 (92Y) PILOT SPORT 4 EL</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>225/40ZR18</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TY5C53B49CBE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MICHELIN 315/30ZR21 (105Y) PILOT SPORT 4 EL N0 ACOUSTIC</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>315/30ZR21</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TY583E03F05E</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MICHELIN 215/40ZR18 (89Y) PILOT SPORT 4 EL</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>215/40ZR18</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TY57C375E72A</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MICHELIN 245/40ZR18 (97Y) PILOT SPORT 4 EL</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>245/40ZR18</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TY5CF5F641F2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MICHELIN 235/40ZR18 (95Y) PILOT SPORT 4 EL</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>235/40ZR18</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TY5CF5F63B68</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MICHELIN 215/45ZR17 (91Y) PILOT SPORT 4 EL</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>215/45ZR17</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TY583E03F2CA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MICHELIN 255/40ZR18 (99Y) PILOT SPORT 4 EL</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>255/40ZR18</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TY5CF5F63BA6</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MICHELIN 245/45ZR17 (99Y) PILOT SPORT 4 EL</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>245/45ZR17</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TY5D3687B097</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MICHELIN 255/40ZR17 (98Y) PILOT SPORT 4 EL</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>255/40ZR17</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TY5C2D70BB77</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MICHELIN 215/45ZR18 (93Y) PILOT SPORT 4 EL</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>215/45ZR18</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TY5951ED9B94</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MICHELIN 235/45R18 98Y PILOT SPORT 4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>235/45R18</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TY5951ED9BAC</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MICHELIN 215/50R17 95W PILOT SPORT 4</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>215/50R17</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TY5757558385</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MICHELIN 225/45ZR17 (94Y) PILOT SPORT 4 EL</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>225/45ZR17</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TY5CF5F63C58</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MICHELIN 245/35ZR18 (92Y) PILOT SPORT 4 EL</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>245/35ZR18</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TY5951ED9B9F</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MICHELIN 205/50R17 93W PILOT SPORT 4</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>205/50R17</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TY5CF5F6411B</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MICHELIN 235/45ZR17 (97Y) PILOT SPORT 4 EL</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>235/45ZR17</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TY5CF5F63B70</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MICHELIN 245/40ZR17 (95Y) PILOT SPORT 4 EL</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>245/40ZR17</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TY5951ED9BB9</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MICHELIN 225/50R17 98Y PILOT SPORT 4</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>225/50R17</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TY5951ED9B85</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>MICHELIN 215/55R17 98W PILOT SPORT 4</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>215/55R17</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TY5E785BFC02</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>MICHELIN 275/35ZR21 (103Y) PILOT SPORT 4 EL N0 ACOUSTIC</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>275/35ZR21</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TY5CF5F63B9C</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>catalog</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>MICHELIN 245/40ZR19 (98Y) PILOT SPORT 4 EL</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MICHELIN</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>245/40ZR19</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>417</t>
         </is>
       </c>
     </row>
